--- a/Excel/grocerydata.xlsx
+++ b/Excel/grocerydata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyntexia\eclipse-workspace\ScreeshotJUnit\Excel\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>email</t>
   </si>
@@ -80,20 +80,36 @@
     <t>order details</t>
   </si>
   <si>
-    <t>Order No: 423799</t>
-  </si>
-  <si>
     <t>SearchText</t>
   </si>
   <si>
     <t>nuts</t>
+  </si>
+  <si>
+    <t>Order No: 793143</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Order No: 216782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +124,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,24 +439,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="8" max="10" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="17.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -459,19 +482,25 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -496,17 +525,23 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
         <v>600098</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>333</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
